--- a/data/trans_bre/P25A_8_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_8_R2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,3</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>581,34%</t>
+          <t>6,65</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>134,48%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-47,34%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15,96%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>163,18%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 14,79</t>
+          <t>-6,01; 12,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 4,03</t>
+          <t>0,0; 9,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 2,42</t>
+          <t>-9,85; 10,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-3,73; 19,49</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-95,33; 298,59</t>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-79,07; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>24,5%</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>92,97%</t>
+          <t>-16,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>141,29%</t>
+          <t>29,94%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>33,2%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>49,16%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 3,45</t>
+          <t>-4,87; 3,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 5,38</t>
+          <t>-3,07; 5,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,14; 8,65</t>
+          <t>-3,69; 5,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-60,08; 259,64</t>
+          <t>-3,38; 9,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,57; 523,99</t>
+          <t>-77,02; 191,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 602,49</t>
+          <t>-55,88; 357,98</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-62,69; 470,03</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-36,12; 248,93</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>60,24%</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>63,62%</t>
+          <t>50,8%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>24,82%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13,45%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,9%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 5,28</t>
+          <t>-3,37; 5,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 6,51</t>
+          <t>-4,32; 6,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 6,27</t>
+          <t>-8,21; 7,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-51,63; 371,91</t>
+          <t>-8,74; 6,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-37,46; 358,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-50,57; 172,59</t>
+          <t>-62,94; 297,6</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-61,18; 220,65</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-66,47; 128,71</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>85,24%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>70,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>47,57%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 4,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 3,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 4,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 294,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 221,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,22; 169,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>22,87%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>39,97%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>24,12%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>38,5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,94; 3,5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 4,45</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-2,67; 4,98</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,82; 7,41</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-42,91; 194,91</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-31,36; 201,19</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-37,27; 156,96</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-20,01; 153,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25A_8_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_8_R2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,187 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,01</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,01</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,77</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,65</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>134,48%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>15,96%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>163,18%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>4.106383339801734</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.781003176722573</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.5861105983456578</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>5.469517114449284</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1.719349313382603</v>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1307055849130006</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.246166206497095</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-6,01; 12,54</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 9,57</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-9,85; 10,4</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,73; 19,49</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-79,07; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.138865112680808</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-8.806974375229991</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-5.441721439687477</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-0.8180208603270729</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>12.1616543575613</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.965879211244362</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.380084789460781</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>17.06792269699388</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,66</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,13</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,14</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,49</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-16,43%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>29,94%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>33,2%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>49,16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,87; 3,05</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,07; 5,8</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,69; 5,43</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,38; 9,85</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-77,02; 191,36</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-55,88; 357,98</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-62,69; 470,03</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-36,12; 248,93</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.8058243198797062</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.2328704851586837</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.425888805062097</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.469536068843737</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.1903629624659447</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.04641413600132009</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.3976882556945385</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.4925890928822447</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,35</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,06</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>50,8%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>24,82%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>13,45%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-0,9%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.452695885237984</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-5.243691611439822</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-3.30277906614466</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.004989146723113</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.8025364385823484</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.6776298935431346</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.6117672800253571</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3562549790678249</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,37; 5,42</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,32; 6,68</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-8,21; 7,86</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-8,74; 6,28</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-62,94; 297,6</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-61,18; 220,65</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-66,47; 128,71</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>2.945275365354482</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.367595575144525</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.079928918058341</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>9.894542300010636</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.772314756254796</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.450406804779976</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>5.122348563032658</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.601066308446483</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +815,207 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.690125904865285</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.865694444638511</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.8731018991600087</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.8750835927752012</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.7307963773996896</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.4142177441502515</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.1078995469557627</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1094318502866353</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.244261127917145</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.499905064710708</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-9.206989269718054</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-6.854535171232877</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.5537725835639241</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.642197113630454</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.6047770995801433</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.890224010335946</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.417039112141034</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.717557451931293</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>6.978862428622628</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>3.593368562548223</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>2.065138164676739</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.528887103966012</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,77</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,76</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>22,87%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>39,97%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>24,12%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>38,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,94; 3,5</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,49; 4,45</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,67; 4,98</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,82; 7,41</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-42,91; 194,91</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-31,36; 201,19</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-37,27; 156,96</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-20,01; 153,05</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.8441412759688204</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.174773245316046</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.256197475505592</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.872701419532778</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.261361905222559</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.2817745537301568</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2374517207208425</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.414861775964939</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.973825232935517</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.135881510545688</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.874738285203728</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.499369637525761</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.4158400563559668</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.3852068443571081</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3870341418499225</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.179182756505205</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.45806747794548</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.341768068212057</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>4.959910155485496</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.259278472431436</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>2.012783531469379</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.688877405005613</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.559902646526942</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.572023535328037</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
